--- a/processed_data/data_gazepath/data_cdc-ceu.xlsx
+++ b/processed_data/data_gazepath/data_cdc-ceu.xlsx
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1529</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -575,16 +575,8 @@
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G5">
-        <v>9097</v>
-      </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -676,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>3088</v>
+        <v>913</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -813,12 +805,6 @@
       <c r="E11">
         <v>4</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
       <c r="J11">
         <v>0</v>
       </c>
@@ -1237,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1273</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>1067</v>
@@ -1353,17 +1339,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>congruent</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="G25">
-        <v>9223</v>
+        <v>7261</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>799</v>
@@ -1652,16 +1638,8 @@
       <c r="E32">
         <v>1</v>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G32">
-        <v>5755</v>
-      </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -1695,11 +1673,19 @@
       <c r="E33">
         <v>2</v>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>incongruent</t>
+        </is>
+      </c>
+      <c r="G33">
+        <v>8603</v>
+      </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1834,7 +1820,7 @@
         <v>832</v>
       </c>
       <c r="K36">
-        <v>1183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1902,16 +1888,8 @@
       <c r="E38">
         <v>1</v>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G38">
-        <v>8419</v>
-      </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -2374,10 +2352,10 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>1912</v>
+        <v>611</v>
       </c>
       <c r="K49">
-        <v>3313</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="50">
@@ -2503,10 +2481,10 @@
         <v>1</v>
       </c>
       <c r="J52">
-        <v>862</v>
+        <v>1319</v>
       </c>
       <c r="K52">
-        <v>1271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2531,12 +2509,6 @@
       <c r="E53">
         <v>4</v>
       </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
       <c r="J53">
         <v>0</v>
       </c>
@@ -2682,11 +2654,19 @@
       <c r="E58">
         <v>3</v>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>incongruent</t>
+        </is>
+      </c>
+      <c r="G58">
+        <v>6941</v>
+      </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -2931,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>2835</v>
+        <v>0</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -3095,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>3591</v>
+        <v>812</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -3135,7 +3115,7 @@
         <v>2</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69">
         <v>1248</v>
@@ -3219,7 +3199,7 @@
         <v>809</v>
       </c>
       <c r="K71">
-        <v>4162</v>
+        <v>665</v>
       </c>
     </row>
     <row r="72">
@@ -3259,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>2697</v>
+        <v>1610</v>
       </c>
       <c r="K72">
         <v>2023</v>
@@ -3509,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>3911</v>
+        <v>1748</v>
       </c>
       <c r="K78">
         <v>1884</v>
@@ -3552,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>2231</v>
+        <v>1339</v>
       </c>
       <c r="K79">
         <v>311</v>
@@ -3632,13 +3612,13 @@
         <v>4807</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>2887</v>
+        <v>1906</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -3704,10 +3684,10 @@
         <v>1</v>
       </c>
       <c r="J83">
-        <v>2050</v>
+        <v>319</v>
       </c>
       <c r="K83">
-        <v>1637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -3770,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="J85">
-        <v>1733</v>
+        <v>0</v>
       </c>
       <c r="K85">
         <v>2014</v>
@@ -4191,7 +4171,7 @@
         <v>2</v>
       </c>
       <c r="J96">
-        <v>1920</v>
+        <v>717</v>
       </c>
       <c r="K96">
         <v>798</v>
@@ -4234,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>4156</v>
+        <v>1889</v>
       </c>
       <c r="K97">
         <v>745</v>
@@ -4355,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>1736</v>
+        <v>747</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -4512,19 +4492,11 @@
       <c r="E104">
         <v>1</v>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G104">
-        <v>8899</v>
-      </c>
       <c r="H104">
         <v>0</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -5698,7 +5670,7 @@
         <v>2</v>
       </c>
       <c r="J133">
-        <v>939</v>
+        <v>0</v>
       </c>
       <c r="K133">
         <v>2413</v>
@@ -6029,7 +6001,7 @@
         <v>659</v>
       </c>
       <c r="K141">
-        <v>2916</v>
+        <v>483</v>
       </c>
     </row>
     <row r="142">
@@ -6069,7 +6041,7 @@
         <v>1</v>
       </c>
       <c r="J142">
-        <v>1792</v>
+        <v>447</v>
       </c>
       <c r="K142">
         <v>1269</v>
@@ -6147,10 +6119,10 @@
         <v>0</v>
       </c>
       <c r="J144">
-        <v>3008</v>
+        <v>1019</v>
       </c>
       <c r="K144">
-        <v>1477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -6193,7 +6165,7 @@
         <v>733</v>
       </c>
       <c r="K145">
-        <v>3090</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -6230,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J146">
         <v>1099</v>
@@ -6448,7 +6420,7 @@
         <v>1</v>
       </c>
       <c r="J151">
-        <v>2971</v>
+        <v>0</v>
       </c>
       <c r="K151">
         <v>1934</v>
@@ -6491,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="J152">
-        <v>2603</v>
+        <v>660</v>
       </c>
       <c r="K152">
         <v>0</v>
@@ -6615,7 +6587,7 @@
         <v>0</v>
       </c>
       <c r="K155">
-        <v>1319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -7153,7 +7125,7 @@
         <v>1</v>
       </c>
       <c r="J170">
-        <v>1275</v>
+        <v>0</v>
       </c>
       <c r="K170">
         <v>1153</v>
@@ -7196,7 +7168,7 @@
         <v>0</v>
       </c>
       <c r="J171">
-        <v>3347</v>
+        <v>0</v>
       </c>
       <c r="K171">
         <v>0</v>
@@ -7239,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="J172">
-        <v>3118</v>
+        <v>0</v>
       </c>
       <c r="K172">
         <v>0</v>
@@ -7282,7 +7254,7 @@
         <v>0</v>
       </c>
       <c r="J173">
-        <v>4396</v>
+        <v>503</v>
       </c>
       <c r="K173">
         <v>0</v>
@@ -7371,7 +7343,7 @@
         <v>0</v>
       </c>
       <c r="K175">
-        <v>5318</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="176">
@@ -7411,7 +7383,7 @@
         <v>0</v>
       </c>
       <c r="J176">
-        <v>2602</v>
+        <v>395</v>
       </c>
       <c r="K176">
         <v>0</v>
@@ -7454,7 +7426,7 @@
         <v>1</v>
       </c>
       <c r="J177">
-        <v>1811</v>
+        <v>0</v>
       </c>
       <c r="K177">
         <v>1590</v>
@@ -7586,7 +7558,7 @@
         <v>907</v>
       </c>
       <c r="K180">
-        <v>2153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -7626,7 +7598,7 @@
         <v>0</v>
       </c>
       <c r="J181">
-        <v>3642</v>
+        <v>1747</v>
       </c>
       <c r="K181">
         <v>309</v>
@@ -7755,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="J184">
-        <v>1305</v>
+        <v>0</v>
       </c>
       <c r="K184">
         <v>0</v>
@@ -7884,7 +7856,7 @@
         <v>0</v>
       </c>
       <c r="J187">
-        <v>2205</v>
+        <v>0</v>
       </c>
       <c r="K187">
         <v>0</v>
@@ -7973,7 +7945,7 @@
         <v>1549</v>
       </c>
       <c r="K189">
-        <v>1917</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
